--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N2">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P2">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q2">
-        <v>117.2424841888889</v>
+        <v>13.604291492539</v>
       </c>
       <c r="R2">
-        <v>1055.1823577</v>
+        <v>122.438623432851</v>
       </c>
       <c r="S2">
-        <v>0.007842239229249868</v>
+        <v>0.002139905019082421</v>
       </c>
       <c r="T2">
-        <v>0.00784223922924987</v>
+        <v>0.002139905019082421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P3">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q3">
-        <v>9401.366499703472</v>
+        <v>2770.368180495767</v>
       </c>
       <c r="R3">
-        <v>84612.29849733124</v>
+        <v>24933.31362446191</v>
       </c>
       <c r="S3">
-        <v>0.6288485414020022</v>
+        <v>0.4357687261700027</v>
       </c>
       <c r="T3">
-        <v>0.6288485414020024</v>
+        <v>0.4357687261700028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N4">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P4">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q4">
-        <v>1955.705204288194</v>
+        <v>529.3516695701401</v>
       </c>
       <c r="R4">
-        <v>17601.34683859375</v>
+        <v>4764.16502613126</v>
       </c>
       <c r="S4">
-        <v>0.130815277243763</v>
+        <v>0.08326507081931038</v>
       </c>
       <c r="T4">
-        <v>0.1308152772437631</v>
+        <v>0.08326507081931039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N5">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P5">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q5">
-        <v>23.6748163752</v>
+        <v>9.322470743850003</v>
       </c>
       <c r="R5">
-        <v>213.0733473768</v>
+        <v>83.90223669465001</v>
       </c>
       <c r="S5">
-        <v>0.001583586146330359</v>
+        <v>0.001466390362625969</v>
       </c>
       <c r="T5">
-        <v>0.001583586146330359</v>
+        <v>0.001466390362625969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P6">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q6">
         <v>1898.42126850405</v>
@@ -818,10 +818,10 @@
         <v>17085.79141653645</v>
       </c>
       <c r="S6">
-        <v>0.1269836087873997</v>
+        <v>0.2986146836851148</v>
       </c>
       <c r="T6">
-        <v>0.1269836087873997</v>
+        <v>0.2986146836851148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N7">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P7">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q7">
-        <v>394.9162448737499</v>
+        <v>362.7432899010001</v>
       </c>
       <c r="R7">
-        <v>3554.24620386375</v>
+        <v>3264.689609109</v>
       </c>
       <c r="S7">
-        <v>0.02641557528606576</v>
+        <v>0.05705818543533345</v>
       </c>
       <c r="T7">
-        <v>0.02641557528606577</v>
+        <v>0.05705818543533345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.321445333333333</v>
+        <v>0.5203476666666668</v>
       </c>
       <c r="N8">
-        <v>3.964336</v>
+        <v>1.561043</v>
       </c>
       <c r="O8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="P8">
-        <v>0.01021782062667047</v>
+        <v>0.004105934376266647</v>
       </c>
       <c r="Q8">
-        <v>11.84043077355911</v>
+        <v>3.176418795411889</v>
       </c>
       <c r="R8">
-        <v>106.563876962032</v>
+        <v>28.587769158707</v>
       </c>
       <c r="S8">
-        <v>0.0007919952510902406</v>
+        <v>0.0004996389945582571</v>
       </c>
       <c r="T8">
-        <v>0.0007919952510902409</v>
+        <v>0.0004996389945582572</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>317.889679</v>
       </c>
       <c r="O9">
-        <v>0.819340166699254</v>
+        <v>0.8361295370252257</v>
       </c>
       <c r="P9">
-        <v>0.8193401666992541</v>
+        <v>0.8361295370252259</v>
       </c>
       <c r="Q9">
-        <v>949.4530074717247</v>
+        <v>646.8436495618968</v>
       </c>
       <c r="R9">
-        <v>8545.077067245524</v>
+        <v>5821.59284605707</v>
       </c>
       <c r="S9">
-        <v>0.06350801650985209</v>
+        <v>0.1017461271701081</v>
       </c>
       <c r="T9">
-        <v>0.06350801650985211</v>
+        <v>0.1017461271701081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.04284166666666</v>
+        <v>20.24706</v>
       </c>
       <c r="N10">
-        <v>66.128525</v>
+        <v>60.74118</v>
       </c>
       <c r="O10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="P10">
-        <v>0.1704420126740755</v>
+        <v>0.1597645285985076</v>
       </c>
       <c r="Q10">
-        <v>197.5085417633805</v>
+        <v>123.59648376598</v>
       </c>
       <c r="R10">
-        <v>1777.576875870425</v>
+        <v>1112.36835389382</v>
       </c>
       <c r="S10">
-        <v>0.01321116014424666</v>
+        <v>0.01944127234386376</v>
       </c>
       <c r="T10">
-        <v>0.01321116014424667</v>
+        <v>0.01944127234386376</v>
       </c>
     </row>
   </sheetData>
